--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
   </si>
   <si>
     <t>Issue</t>
@@ -338,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1298,6 +1307,39 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1316,13 +1358,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
   </si>
   <si>
     <t>Issue</t>
@@ -347,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1340,6 +1343,17 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1358,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,12 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-08-21</t>
-  </si>
-  <si>
-    <t>2025-08-22</t>
-  </si>
-  <si>
     <t>2025-08-23</t>
   </si>
   <si>
@@ -292,6 +286,12 @@
   </si>
   <si>
     <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="16">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="27">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="46">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="48">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>73.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="51">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>65.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="54">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>50.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="58">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="59">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="60">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="61">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
     <t>2025-08-24</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
   </si>
   <si>
     <t>Issue</t>
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="11">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="25">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="30">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="48">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="51">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="54">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="58">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="59">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="60">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="63">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-08-24</t>
   </si>
   <si>
     <t>2025-08-25</t>
@@ -350,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -408,7 +405,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +427,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +449,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="10">
@@ -485,7 +482,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +548,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +559,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +570,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +581,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +592,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +603,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="24">
@@ -650,7 +647,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +658,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="29">
@@ -694,7 +691,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +702,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +713,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +724,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +735,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +746,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +757,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +779,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +790,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +812,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +823,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +834,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +856,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +867,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="48">
@@ -881,7 +878,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +889,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +900,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="51">
@@ -914,7 +911,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +922,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +933,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="54">
@@ -947,7 +944,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +955,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +966,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +977,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="58">
@@ -991,7 +988,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="59">
@@ -1024,7 +1021,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
@@ -1035,7 +1032,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
@@ -1046,7 +1043,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,7 +1054,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -1343,17 +1340,6 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1372,13 +1358,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-08-25</t>
-  </si>
-  <si>
     <t>2025-08-26</t>
   </si>
   <si>
@@ -289,6 +286,15 @@
   </si>
   <si>
     <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
   </si>
   <si>
     <t>Issue</t>
@@ -347,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -394,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
@@ -416,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
@@ -427,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="8">
@@ -438,7 +444,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="9">
@@ -471,7 +477,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="12">
@@ -537,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="18">
@@ -548,7 +554,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
@@ -559,7 +565,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="20">
@@ -570,7 +576,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="21">
@@ -581,7 +587,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="22">
@@ -592,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
@@ -636,7 +642,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="27">
@@ -647,7 +653,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="28">
@@ -680,7 +686,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="31">
@@ -691,7 +697,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +708,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="33">
@@ -713,7 +719,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="34">
@@ -724,7 +730,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="35">
@@ -735,7 +741,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="36">
@@ -746,7 +752,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="37">
@@ -768,7 +774,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="39">
@@ -779,7 +785,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="40">
@@ -801,7 +807,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="42">
@@ -812,7 +818,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="43">
@@ -823,7 +829,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="44">
@@ -845,7 +851,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="46">
@@ -856,7 +862,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="47">
@@ -867,7 +873,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="48">
@@ -878,7 +884,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="49">
@@ -889,7 +895,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="50">
@@ -900,7 +906,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="51">
@@ -911,7 +917,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="52">
@@ -922,7 +928,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="53">
@@ -933,7 +939,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="54">
@@ -944,7 +950,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="55">
@@ -955,7 +961,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="56">
@@ -966,7 +972,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="57">
@@ -977,7 +983,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="58">
@@ -1010,7 +1016,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="61">
@@ -1021,7 +1027,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
@@ -1032,7 +1038,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -1043,7 +1049,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -1340,6 +1346,28 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1358,13 +1386,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -24,21 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-08-26</t>
-  </si>
-  <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>2025-08-29</t>
-  </si>
-  <si>
-    <t>2025-08-30</t>
-  </si>
-  <si>
     <t>2025-08-31</t>
   </si>
   <si>
@@ -295,6 +280,18 @@
   </si>
   <si>
     <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
   </si>
   <si>
     <t>Issue</t>
@@ -353,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -378,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="8">
@@ -444,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="11">
@@ -488,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="13">
@@ -499,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
@@ -521,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="16">
@@ -532,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
@@ -543,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="18">
@@ -565,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
@@ -576,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
@@ -598,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="23">
@@ -609,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="25">
@@ -631,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>24.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="27">
@@ -653,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="29">
@@ -675,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="31">
@@ -697,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="32">
@@ -708,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="33">
@@ -719,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>44.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="34">
@@ -730,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>39.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="35">
@@ -741,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>34.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="36">
@@ -752,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="37">
@@ -763,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>46.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="38">
@@ -774,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>56.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="39">
@@ -785,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>67.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="40">
@@ -796,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>67.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="41">
@@ -807,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>74.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="42">
@@ -818,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>83.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="43">
@@ -829,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>78.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="44">
@@ -840,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>78.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="45">
@@ -851,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>73.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="46">
@@ -862,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>70.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="47">
@@ -873,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>65.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="48">
@@ -884,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>60.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="49">
@@ -895,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>57.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="50">
@@ -906,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>50.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="51">
@@ -917,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>47.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="52">
@@ -928,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>39.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="53">
@@ -939,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>36.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="54">
@@ -950,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="55">
@@ -961,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>23.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="56">
@@ -972,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
@@ -983,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
@@ -994,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -1005,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -1016,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
@@ -1027,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
@@ -1038,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -1357,17 +1354,6 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B92" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C92" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1386,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
     <t>2025-09-01</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="3">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="6">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="22">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="46">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="48">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="51">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="52">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,12 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-01</t>
-  </si>
-  <si>
-    <t>2025-09-02</t>
-  </si>
-  <si>
     <t>2025-09-03</t>
   </si>
   <si>
@@ -292,6 +286,12 @@
   </si>
   <si>
     <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>Issue</t>
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="16">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>73.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>65.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>50.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="46">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="48">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-09-03</t>
   </si>
   <si>
     <t>2025-09-04</t>
@@ -350,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -375,7 +372,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +449,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +460,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +471,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +482,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +493,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +537,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +548,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +581,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +592,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +603,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +614,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +625,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +636,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +647,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +669,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +680,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +702,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +713,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +724,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +746,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +757,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +768,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +779,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +790,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +801,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +812,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +823,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +834,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +845,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="46">
@@ -859,7 +856,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +867,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="48">
@@ -881,7 +878,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="49">
@@ -914,7 +911,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +922,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +933,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -947,7 +944,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -1343,17 +1340,6 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1372,13 +1358,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-04</t>
-  </si>
-  <si>
     <t>2025-09-05</t>
   </si>
   <si>
@@ -289,6 +286,12 @@
   </si>
   <si>
     <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
   </si>
   <si>
     <t>Issue</t>
@@ -347,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -427,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="8">
@@ -438,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="11">
@@ -471,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="12">
@@ -482,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
@@ -537,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="18">
@@ -570,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="21">
@@ -581,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="22">
@@ -592,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="23">
@@ -603,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="25">
@@ -625,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="26">
@@ -636,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="27">
@@ -658,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="29">
@@ -669,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="30">
@@ -691,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="33">
@@ -713,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="34">
@@ -735,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="36">
@@ -746,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="37">
@@ -757,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="38">
@@ -768,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="39">
@@ -779,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="40">
@@ -790,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="41">
@@ -801,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="42">
@@ -812,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="43">
@@ -823,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="44">
@@ -834,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -845,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="46">
@@ -856,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="47">
@@ -867,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="48">
@@ -900,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="51">
@@ -911,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
@@ -922,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -933,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -1340,6 +1343,17 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1358,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -24,15 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-05</t>
-  </si>
-  <si>
-    <t>2025-09-06</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
     <t>2025-09-08</t>
   </si>
   <si>
@@ -292,6 +283,9 @@
   </si>
   <si>
     <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
   </si>
   <si>
     <t>Issue</t>
@@ -350,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -397,7 +391,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +402,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +424,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +435,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +446,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +457,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +468,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +490,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +501,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +512,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +523,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +534,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +545,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +556,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +567,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +578,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +589,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +600,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +611,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +622,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>34.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +633,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +644,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +655,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>56.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +666,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +677,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>67.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +688,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +699,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>83.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +710,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +721,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>78.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +732,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>73.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +743,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>70.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +754,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>65.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +765,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>60.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +776,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>57.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +787,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>50.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +798,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>47.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +809,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>39.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +820,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>36.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +831,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +842,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="46">
@@ -859,7 +853,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +864,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="48">
@@ -881,7 +875,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +886,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +897,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -914,7 +908,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +919,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -1332,28 +1326,6 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1372,13 +1344,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,12 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-08</t>
-  </si>
-  <si>
-    <t>2025-09-09</t>
-  </si>
-  <si>
     <t>2025-09-10</t>
   </si>
   <si>
@@ -286,6 +280,12 @@
   </si>
   <si>
     <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
   </si>
   <si>
     <t>Issue</t>
@@ -369,7 +369,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="3">
@@ -380,7 +380,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
@@ -391,7 +391,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +402,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="6">
@@ -413,7 +413,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
@@ -424,7 +424,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
@@ -435,7 +435,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="12">
@@ -479,7 +479,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="13">
@@ -490,7 +490,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="14">
@@ -512,7 +512,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="16">
@@ -523,7 +523,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="17">
@@ -534,7 +534,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="18">
@@ -556,7 +556,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="20">
@@ -567,7 +567,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="21">
@@ -578,7 +578,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="22">
@@ -589,7 +589,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="23">
@@ -600,7 +600,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="24">
@@ -611,7 +611,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="26">
@@ -633,7 +633,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="27">
@@ -644,7 +644,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="28">
@@ -655,7 +655,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="30">
@@ -677,7 +677,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="32">
@@ -699,7 +699,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>73.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="33">
@@ -710,7 +710,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="34">
@@ -721,7 +721,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>65.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="35">
@@ -732,7 +732,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="36">
@@ -743,7 +743,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="37">
@@ -754,7 +754,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>50.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="38">
@@ -765,7 +765,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="39">
@@ -776,7 +776,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="40">
@@ -787,7 +787,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="41">
@@ -798,7 +798,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="42">
@@ -809,7 +809,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="43">
@@ -820,7 +820,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="44">
@@ -842,7 +842,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
@@ -853,7 +853,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
@@ -864,7 +864,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
@@ -875,7 +875,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -886,7 +886,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -24,12 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-10</t>
-  </si>
-  <si>
-    <t>2025-09-11</t>
-  </si>
-  <si>
     <t>2025-09-12</t>
   </si>
   <si>
@@ -286,6 +280,18 @@
   </si>
   <si>
     <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
   </si>
   <si>
     <t>Issue</t>
@@ -344,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -369,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="3">
@@ -380,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="4">
@@ -391,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
@@ -413,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="12">
@@ -490,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="14">
@@ -501,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="15">
@@ -512,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="16">
@@ -534,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="19">
@@ -556,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="20">
@@ -567,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="21">
@@ -578,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="22">
@@ -589,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="23">
@@ -600,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="24">
@@ -611,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="26">
@@ -633,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="27">
@@ -644,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="28">
@@ -655,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="30">
@@ -677,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>73.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="32">
@@ -699,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>65.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="33">
@@ -710,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="34">
@@ -721,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="35">
@@ -732,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>50.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="36">
@@ -743,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="37">
@@ -754,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
@@ -765,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="39">
@@ -776,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="40">
@@ -787,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="41">
@@ -798,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="42">
@@ -820,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
@@ -831,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
@@ -842,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -853,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -864,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -1326,6 +1332,28 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1344,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-12</t>
-  </si>
-  <si>
     <t>2025-09-13</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="10">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="40">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -24,12 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>2025-09-14</t>
-  </si>
-  <si>
     <t>2025-09-15</t>
   </si>
   <si>
@@ -292,6 +286,9 @@
   </si>
   <si>
     <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
   </si>
   <si>
     <t>Issue</t>
@@ -350,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -375,7 +372,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +383,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
@@ -419,7 +416,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +427,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +460,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +471,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +482,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +504,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +515,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +526,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +537,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +548,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +559,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +570,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +581,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +592,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +603,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +614,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +625,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +636,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +647,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>73.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +658,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +669,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>65.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +680,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +691,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +702,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>50.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +713,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +724,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +735,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +746,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +757,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +768,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +790,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +801,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +812,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +823,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +834,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -1343,17 +1340,6 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1372,13 +1358,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
   </si>
   <si>
     <t>2025-09-16</t>
@@ -347,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -405,7 +402,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +413,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +446,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +457,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="11">
@@ -471,7 +468,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="12">
@@ -482,7 +479,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="13">
@@ -493,7 +490,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="14">
@@ -504,7 +501,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +512,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="16">
@@ -537,7 +534,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="18">
@@ -548,7 +545,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="19">
@@ -570,7 +567,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="21">
@@ -581,7 +578,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="22">
@@ -592,7 +589,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="23">
@@ -614,7 +611,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="25">
@@ -625,7 +622,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="26">
@@ -636,7 +633,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="27">
@@ -647,7 +644,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +655,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="29">
@@ -669,7 +666,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +677,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="31">
@@ -691,7 +688,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +699,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="33">
@@ -713,7 +710,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
@@ -724,7 +721,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="35">
@@ -735,7 +732,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="36">
@@ -746,7 +743,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
@@ -779,7 +776,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="40">
@@ -790,7 +787,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
@@ -801,7 +798,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -812,7 +809,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -1329,17 +1326,6 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1358,13 +1344,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -24,12 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-16</t>
-  </si>
-  <si>
-    <t>2025-09-17</t>
-  </si>
-  <si>
     <t>2025-09-18</t>
   </si>
   <si>
@@ -286,6 +280,9 @@
   </si>
   <si>
     <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
   </si>
   <si>
     <t>Issue</t>
@@ -344,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -380,7 +377,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="4">
@@ -391,7 +388,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +399,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="6">
@@ -424,7 +421,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="8">
@@ -435,7 +432,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +443,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="10">
@@ -468,7 +465,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="12">
@@ -479,7 +476,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="13">
@@ -490,7 +487,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="14">
@@ -501,7 +498,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="15">
@@ -512,7 +509,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="16">
@@ -523,7 +520,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="17">
@@ -534,7 +531,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +542,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="19">
@@ -556,7 +553,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="20">
@@ -567,7 +564,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="21">
@@ -578,7 +575,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="22">
@@ -589,7 +586,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="23">
@@ -600,7 +597,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="24">
@@ -611,7 +608,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>73.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +619,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="26">
@@ -633,7 +630,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>65.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="27">
@@ -644,7 +641,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="28">
@@ -655,7 +652,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +663,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>50.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="30">
@@ -677,7 +674,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +685,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
@@ -699,7 +696,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="33">
@@ -710,7 +707,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="34">
@@ -721,7 +718,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="35">
@@ -732,7 +729,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="36">
@@ -754,7 +751,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
@@ -765,7 +762,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="39">
@@ -776,7 +773,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -787,7 +784,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -798,7 +795,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -1315,17 +1312,6 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1344,13 +1330,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-18</t>
-  </si>
-  <si>
     <t>2025-09-19</t>
   </si>
   <si>
@@ -283,6 +280,12 @@
   </si>
   <si>
     <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Issue</t>
@@ -341,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -366,7 +369,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="3">
@@ -377,7 +380,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +413,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="7">
@@ -421,7 +424,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="8">
@@ -432,7 +435,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="9">
@@ -443,7 +446,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="10">
@@ -454,7 +457,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="11">
@@ -465,7 +468,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +479,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="13">
@@ -498,7 +501,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="15">
@@ -509,7 +512,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="16">
@@ -531,7 +534,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="18">
@@ -542,7 +545,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="19">
@@ -553,7 +556,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="20">
@@ -575,7 +578,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="22">
@@ -586,7 +589,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="23">
@@ -597,7 +600,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="24">
@@ -608,7 +611,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="25">
@@ -619,7 +622,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="26">
@@ -630,7 +633,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="27">
@@ -641,7 +644,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="28">
@@ -652,7 +655,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="29">
@@ -663,7 +666,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +677,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
@@ -685,7 +688,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +699,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="33">
@@ -707,7 +710,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
@@ -740,7 +743,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="37">
@@ -751,7 +754,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
@@ -762,7 +765,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -773,7 +776,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -1312,6 +1315,17 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1330,13 +1344,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -22,12 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-09-19</t>
-  </si>
-  <si>
-    <t>2025-09-20</t>
   </si>
   <si>
     <t>2025-09-21</t>
@@ -344,7 +338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -369,7 +363,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="3">
@@ -391,7 +385,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +396,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="6">
@@ -413,7 +407,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +429,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +440,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +451,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +462,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="12">
@@ -479,7 +473,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="13">
@@ -490,7 +484,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="14">
@@ -501,7 +495,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="15">
@@ -512,7 +506,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="16">
@@ -523,7 +517,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="17">
@@ -534,7 +528,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +539,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="19">
@@ -556,7 +550,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="20">
@@ -567,7 +561,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="21">
@@ -578,7 +572,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>73.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="22">
@@ -589,7 +583,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="23">
@@ -600,7 +594,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>65.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="24">
@@ -611,7 +605,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +616,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="26">
@@ -633,7 +627,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>50.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="27">
@@ -644,7 +638,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="28">
@@ -655,7 +649,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +660,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="30">
@@ -677,7 +671,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +682,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
@@ -699,7 +693,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
@@ -721,7 +715,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
@@ -732,7 +726,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="36">
@@ -743,7 +737,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -754,7 +748,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -765,7 +759,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -1304,28 +1298,6 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1344,13 +1316,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -24,12 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-21</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
     <t>2025-09-23</t>
   </si>
   <si>
@@ -280,6 +274,27 @@
   </si>
   <si>
     <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
   </si>
   <si>
     <t>Issue</t>
@@ -338,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -363,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="3">
@@ -374,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="4">
@@ -385,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="5">
@@ -407,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="7">
@@ -418,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="8">
@@ -429,7 +444,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="9">
@@ -440,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="10">
@@ -451,7 +466,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="11">
@@ -462,7 +477,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="12">
@@ -473,7 +488,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="13">
@@ -484,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="14">
@@ -495,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="15">
@@ -506,7 +521,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="16">
@@ -517,7 +532,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="17">
@@ -528,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="18">
@@ -539,7 +554,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="19">
@@ -550,7 +565,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>73.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="20">
@@ -561,7 +576,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="21">
@@ -572,7 +587,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>65.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="22">
@@ -583,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="23">
@@ -594,7 +609,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="24">
@@ -605,7 +620,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>50.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="25">
@@ -616,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="26">
@@ -627,7 +642,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
@@ -638,7 +653,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="28">
@@ -649,7 +664,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="29">
@@ -660,7 +675,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
@@ -671,7 +686,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
@@ -693,7 +708,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +719,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
@@ -715,7 +730,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -726,7 +741,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -737,7 +752,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -1298,6 +1313,61 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1316,13 +1386,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-23</t>
-  </si>
-  <si>
     <t>2025-09-24</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
   </si>
   <si>
     <t>Issue</t>
@@ -378,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +411,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +466,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="11">
@@ -488,7 +488,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="13">
@@ -499,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="14">
@@ -510,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="15">
@@ -532,7 +532,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="17">
@@ -543,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="18">
@@ -554,7 +554,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="19">
@@ -565,7 +565,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="20">
@@ -576,7 +576,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="21">
@@ -587,7 +587,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="23">
@@ -609,7 +609,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +620,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="25">
@@ -631,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="27">
@@ -653,7 +653,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="29">
@@ -697,7 +697,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="32">
@@ -708,7 +708,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
@@ -719,7 +719,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
@@ -730,7 +730,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -24,12 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-24</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
     <t>2025-09-26</t>
   </si>
   <si>
@@ -295,6 +289,9 @@
   </si>
   <si>
     <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
   </si>
   <si>
     <t>Issue</t>
@@ -353,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -389,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="8">
@@ -444,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="11">
@@ -477,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="12">
@@ -488,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="13">
@@ -499,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="14">
@@ -510,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="16">
@@ -532,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>73.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="17">
@@ -543,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="18">
@@ -554,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>65.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="19">
@@ -565,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="20">
@@ -576,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="21">
@@ -587,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>50.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="23">
@@ -609,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="25">
@@ -631,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="27">
@@ -653,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
@@ -675,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
@@ -697,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -708,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -719,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -1357,17 +1354,6 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B92" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C92" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1386,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
   </si>
   <si>
     <t>Issue</t>
@@ -350,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1354,6 +1357,17 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1372,13 +1386,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
     <t>2025-09-27</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
   </si>
   <si>
     <t>Issue</t>
@@ -378,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="5">
@@ -422,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +466,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="11">
@@ -477,7 +477,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="12">
@@ -499,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="14">
@@ -510,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +521,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="16">
@@ -532,7 +532,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="17">
@@ -543,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="18">
@@ -554,7 +554,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="19">
@@ -565,7 +565,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="20">
@@ -576,7 +576,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="21">
@@ -587,7 +587,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
@@ -609,7 +609,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +620,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="25">
@@ -631,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="26">
@@ -664,7 +664,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
@@ -675,7 +675,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -697,7 +697,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-27</t>
-  </si>
-  <si>
     <t>2025-09-28</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
   </si>
   <si>
     <t>Issue</t>
@@ -378,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="4">
@@ -411,7 +411,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="7">
@@ -444,7 +444,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +466,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="11">
@@ -488,7 +488,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="13">
@@ -499,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="14">
@@ -510,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +521,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="16">
@@ -532,7 +532,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="17">
@@ -543,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="18">
@@ -554,7 +554,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="19">
@@ -565,7 +565,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="20">
@@ -576,7 +576,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="21">
@@ -587,7 +587,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="23">
@@ -609,7 +609,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +620,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="25">
@@ -653,7 +653,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="29">
@@ -675,7 +675,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -24,12 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>2025-09-29</t>
-  </si>
-  <si>
     <t>2025-09-30</t>
   </si>
   <si>
@@ -295,6 +289,9 @@
   </si>
   <si>
     <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
   </si>
   <si>
     <t>Issue</t>
@@ -353,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -378,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="8">
@@ -444,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="11">
@@ -477,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="12">
@@ -488,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>73.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="13">
@@ -499,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="14">
@@ -510,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>65.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="16">
@@ -532,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="17">
@@ -543,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>50.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="18">
@@ -554,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="19">
@@ -565,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -576,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="21">
@@ -587,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
@@ -609,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
@@ -631,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
@@ -653,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -675,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1357,17 +1354,6 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B92" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C92" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1386,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-09-30</t>
-  </si>
-  <si>
     <t>2025-10-01</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="22">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-01</t>
-  </si>
-  <si>
     <t>2025-10-02</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-02</t>
-  </si>
-  <si>
     <t>2025-10-03</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
   </si>
   <si>
     <t>Issue</t>
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
     <t>2025-10-04</t>
   </si>
   <si>
@@ -292,6 +289,12 @@
   </si>
   <si>
     <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
   </si>
   <si>
     <t>Issue</t>
@@ -350,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -375,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +444,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +466,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +477,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +488,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +521,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +532,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +554,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +587,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +609,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +620,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -1354,6 +1357,17 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1372,13 +1386,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
     <t>2025-10-05</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
   </si>
   <si>
     <t>Issue</t>
@@ -378,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="4">
@@ -411,7 +411,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="8">
@@ -444,7 +444,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +466,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="11">
@@ -477,7 +477,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="12">
@@ -488,7 +488,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="13">
@@ -499,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="14">
@@ -510,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +521,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="16">
@@ -532,7 +532,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
@@ -543,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +576,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
@@ -587,7 +587,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -609,7 +609,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-10-05</t>
   </si>
   <si>
     <t>2025-10-06</t>
@@ -353,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -378,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="8">
@@ -444,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="11">
@@ -477,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="12">
@@ -488,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="13">
@@ -499,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="14">
@@ -510,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
@@ -532,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
@@ -576,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -587,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1357,17 +1354,6 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B92" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C92" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1386,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-06</t>
-  </si>
-  <si>
     <t>2025-10-07</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
   </si>
   <si>
     <t>Issue</t>
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-07</t>
-  </si>
-  <si>
     <t>2025-10-08</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
     <t>2025-10-09</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
     <t>2025-10-10</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-10-10</t>
   </si>
   <si>
     <t>2025-10-11</t>
@@ -350,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -375,7 +372,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +383,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +394,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +405,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +416,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +427,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +449,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +460,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +471,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -507,7 +504,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +515,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +526,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +537,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -1343,17 +1340,6 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1372,13 +1358,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
     <t>2025-10-12</t>
   </si>
   <si>
@@ -289,6 +286,12 @@
   </si>
   <si>
     <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
   </si>
   <si>
     <t>Issue</t>
@@ -347,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -372,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="3">
@@ -383,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="4">
@@ -394,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="5">
@@ -405,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="7">
@@ -427,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
@@ -438,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -493,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -504,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -526,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -1340,6 +1343,17 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1358,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-12</t>
-  </si>
-  <si>
     <t>2025-10-13</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
     <t>2025-10-14</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-14</t>
-  </si>
-  <si>
     <t>2025-10-15</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
     <t>2025-10-16</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-16</t>
-  </si>
-  <si>
     <t>2025-10-17</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
     <t>2025-10-18</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-10-18</t>
   </si>
   <si>
     <t>2025-10-19</t>
@@ -350,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -375,7 +372,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +383,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -419,7 +416,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +427,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +449,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -1343,17 +1340,6 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1372,13 +1358,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
   </si>
   <si>
     <t>2025-10-20</t>
@@ -347,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -372,7 +369,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +402,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +413,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -427,7 +424,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -438,7 +435,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -1329,17 +1326,6 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1358,13 +1344,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-20</t>
-  </si>
-  <si>
     <t>2025-10-21</t>
   </si>
   <si>
@@ -286,6 +283,18 @@
   </si>
   <si>
     <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
   </si>
   <si>
     <t>Issue</t>
@@ -344,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -391,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +411,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -413,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -424,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -1326,6 +1335,39 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1344,13 +1386,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-10-21</t>
   </si>
   <si>
     <t>2025-10-22</t>
@@ -353,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -389,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -1357,17 +1354,6 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B92" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C92" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1386,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-22</t>
-  </si>
-  <si>
     <t>2025-10-23</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
     <t>2025-10-24</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">

--- a/gsc-export-old/HTTPS.xlsx
+++ b/gsc-export-old/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
     <t>2025-10-25</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
